--- a/templates/PLACEHOLDER/data/android/caseInfo.xlsx
+++ b/templates/PLACEHOLDER/data/android/caseInfo.xlsx
@@ -14,23 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Title </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Status</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>Completed</t>
   </si>
@@ -39,12 +23,6 @@
   </si>
   <si>
     <t>Selenium 2 + WebDriver 不能实现图片验证.</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
   </si>
   <si>
     <t>2. Launch AiO app.</t>
@@ -86,13 +64,20 @@
     <t xml:space="preserve">1. Install AiO app / clear data of AiO app.
 2. Launch AiO app.
 </t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>1. Sheet name and ID only accept letters and _ please like page_example. Otherwise related class can not be created automatically. (You also create other sheet and follow this name rule.)
+2. Do not delete Row 1, Row 2  and Row 3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,25 +94,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <name val="Verdana"/>
-      <family val="2"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,12 +134,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -201,57 +205,85 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -577,7 +609,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -590,196 +622,187 @@
     <col min="6" max="6" width="29" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="51.75" customHeight="1">
+      <c r="A1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1">
+      <c r="A5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="25.5">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="D2:D4"/>
     <mergeCell ref="A5:A15"/>
     <mergeCell ref="B5:B15"/>

--- a/templates/PLACEHOLDER/data/android/caseInfo.xlsx
+++ b/templates/PLACEHOLDER/data/android/caseInfo.xlsx
@@ -14,7 +14,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Title </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Status</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
   <si>
     <t>Completed</t>
   </si>
@@ -23,6 +39,12 @@
   </si>
   <si>
     <t>Selenium 2 + WebDriver 不能实现图片验证.</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
   </si>
   <si>
     <t>2. Launch AiO app.</t>
@@ -69,15 +91,15 @@
     <t>Note</t>
   </si>
   <si>
-    <t>1. Sheet name and ID only accept letters and _ please like page_example. Otherwise related class can not be created automatically. (You also create other sheet and follow this name rule.)
-2. Do not delete Row 1, Row 2  and Row 3.</t>
+    <t>1. Sheet name and ID only accept letters and _ please like HomeMoreAbout. Otherwise related class can not be created automatically. (You also create other sheet and follow this name rule.)
+2. Do not delete Row 1 and Row 2.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,6 +114,18 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -125,12 +159,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -230,56 +270,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -606,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -622,200 +665,220 @@
     <col min="6" max="6" width="29" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="51.75" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
+    <row r="1" spans="1:6" ht="53.25" customHeight="1">
+      <c r="A1" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1">
+      <c r="A3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
       <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1">
+      <c r="A6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="25.5">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" ht="25.5">
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="A5:A15"/>
-    <mergeCell ref="B5:B15"/>
-    <mergeCell ref="D5:D8"/>
-    <mergeCell ref="D9:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C5:C11"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="A6:A16"/>
+    <mergeCell ref="B6:B16"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E1">
+  <conditionalFormatting sqref="E2">
     <cfRule type="colorScale" priority="119">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -825,7 +888,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F1">
+  <conditionalFormatting sqref="F2">
     <cfRule type="colorScale" priority="118">
       <colorScale>
         <cfvo type="min" val="0"/>
@@ -835,7 +898,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E15">
+  <conditionalFormatting sqref="E3:E16">
     <cfRule type="cellIs" dxfId="2" priority="115" operator="equal">
       <formula>"In Process"</formula>
     </cfRule>
@@ -847,7 +910,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
       <formula1>"Completed,Block,In Process"</formula1>
     </dataValidation>
   </dataValidations>
